--- a/data-raw/tb_ppreport.xlsx
+++ b/data-raw/tb_ppreport.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pompy\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pompy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2A8858-B298-4498-90E9-ED9CCE2BADCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53A6257-4648-4981-AB06-F6B8969DA937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_data" sheetId="2" r:id="rId1"/>
     <sheet name="tb_ug" sheetId="3" r:id="rId2"/>
     <sheet name="tb_gnd" sheetId="4" r:id="rId3"/>
+    <sheet name="tb_elemento" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="427">
   <si>
     <t>Emissão - Ano</t>
   </si>
@@ -882,6 +883,438 @@
   </si>
   <si>
     <t>Investimento</t>
+  </si>
+  <si>
+    <t>tg_ordem_bancaria</t>
+  </si>
+  <si>
+    <t>tg_documento_habil</t>
+  </si>
+  <si>
+    <t>Documento Hábil</t>
+  </si>
+  <si>
+    <t>DH - Estado Código</t>
+  </si>
+  <si>
+    <t>DH - Estado Nome</t>
+  </si>
+  <si>
+    <t>DH - UG Emitente Código</t>
+  </si>
+  <si>
+    <t>DH - UG Emitente Nome</t>
+  </si>
+  <si>
+    <t>Fornecedor Número</t>
+  </si>
+  <si>
+    <t>Fornecedor Nome</t>
+  </si>
+  <si>
+    <t>DH - Doc. Origem</t>
+  </si>
+  <si>
+    <t>DH - Data Emissão Doc.Origem</t>
+  </si>
+  <si>
+    <t>DH - Dia Ateste</t>
+  </si>
+  <si>
+    <t>Compr. - Dia Pagamento</t>
+  </si>
+  <si>
+    <t>DH Item - Nota Empenho</t>
+  </si>
+  <si>
+    <t>DH Item - Natureza Despesa Det. Código</t>
+  </si>
+  <si>
+    <t>DH Item - Natureza Despesa Det. Nome</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Doc - Valor</t>
+  </si>
+  <si>
+    <t>DH - Valor Doc.Origem</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>CO_ESTADO</t>
+  </si>
+  <si>
+    <t>CO_FORNECEDOR</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>CO_UG</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>FORNECEDOR</t>
+  </si>
+  <si>
+    <t>DOCUMENTO_ORIGEM</t>
+  </si>
+  <si>
+    <t>ATESTE</t>
+  </si>
+  <si>
+    <t>PAGAMENTO</t>
+  </si>
+  <si>
+    <t>VALOR_DOCUMENTO_ORIGEM</t>
+  </si>
+  <si>
+    <t>VALOR_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Emissão - Dia</t>
+  </si>
+  <si>
+    <t>Documento Origem</t>
+  </si>
+  <si>
+    <t>Doc - Situação</t>
+  </si>
+  <si>
+    <t>OB - Tipo</t>
+  </si>
+  <si>
+    <t>OB - OB Cancelada</t>
+  </si>
+  <si>
+    <t>Favorecido - Tipo</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>SITUACAO</t>
+  </si>
+  <si>
+    <t>OB_CANCELADA</t>
+  </si>
+  <si>
+    <t>TIPO_FAVORECIDO</t>
+  </si>
+  <si>
+    <t>OCP</t>
+  </si>
+  <si>
+    <t>OCP_CATEGORIA</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Aposentadorias do RPPS, Reserva Remunerada e Reformas dos Militares</t>
+  </si>
+  <si>
+    <t>ATIVO</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Pensões do RPPS e do militar</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Contratação por Tempo Determinado</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Outros Benefícios Previdenciários do servidor ou do militar</t>
+  </si>
+  <si>
+    <t>INATIVO</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Benefício Mensal ao Deficiente e ao Idoso</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Contribuição a Entidades Fechadas de Previdência</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Outros Benefícios Assistenciais do servidor e do militar</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Salário-Família</t>
+  </si>
+  <si>
+    <t>Seguro Desemprego e Abono Salarial</t>
+  </si>
+  <si>
+    <t>Vencimentos e Vantagens Fixas - Pessoal Civil</t>
+  </si>
+  <si>
+    <t>Vencimentos e Vantagens Fixas - Pessoal Militar</t>
+  </si>
+  <si>
+    <t>Obrigações Patronais</t>
+  </si>
+  <si>
+    <t>Diárias - Civil</t>
+  </si>
+  <si>
+    <t>Diárias - Militar</t>
+  </si>
+  <si>
+    <t>Outras Despesas Variáveis - Pessoal Civil</t>
+  </si>
+  <si>
+    <t>Outras Despesas Variáveis - Pessoal Militar</t>
+  </si>
+  <si>
+    <t>Auxílio Financeiro a Estudantes</t>
+  </si>
+  <si>
+    <t>Auxílio-Fardamento</t>
+  </si>
+  <si>
+    <t>Auxílio Financeiro a Pesquisadores</t>
+  </si>
+  <si>
+    <t>Juros sobre a Dívida por Contrato</t>
+  </si>
+  <si>
+    <t>Outros Encargos sobre a Dívida por Contrato</t>
+  </si>
+  <si>
+    <t>Juros, Deságios e Descontos da Dívida Mobiliária</t>
+  </si>
+  <si>
+    <t>Outros Encargos sobre a Dívida Mobiliária</t>
+  </si>
+  <si>
+    <t>Encargos sobre Operações de Crédito por Antecipação da Receita</t>
+  </si>
+  <si>
+    <t>Obrigações decorrentes de Política Monetária</t>
+  </si>
+  <si>
+    <t>Encargos pela Honra de Avais, Garantias, Seguros e Similares</t>
+  </si>
+  <si>
+    <t>Remuneração de Cotas de Fundos Autárquicos</t>
+  </si>
+  <si>
+    <t>Distribuição de Resultado de Empresas Estatais Dependentes</t>
+  </si>
+  <si>
+    <t>Material de Consumo</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>FORNECIMENTO DE BENS</t>
+  </si>
+  <si>
+    <t>Premiações Culturais, Artísticas, Científicas, Desportivas e Outras</t>
+  </si>
+  <si>
+    <t>Material, Bem ou Serviço para Distribuição Gratuita</t>
+  </si>
+  <si>
+    <t>Passagens e Despesas com Locomoção</t>
+  </si>
+  <si>
+    <t>PRESTAÇÃO DE SERVIÇOS</t>
+  </si>
+  <si>
+    <t>Outras Despesas de Pessoal decorrentes de Contratos de Terceirização</t>
+  </si>
+  <si>
+    <t>Serviços de Consultoria</t>
+  </si>
+  <si>
+    <t>Outros Serviços de Terceiros - Pessoa Física</t>
+  </si>
+  <si>
+    <t>Locação de Mão-de-Obra</t>
+  </si>
+  <si>
+    <t>Arrendamento Mercantil</t>
+  </si>
+  <si>
+    <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+  </si>
+  <si>
+    <t>Serviços de Tecnologia da Informação e Comunicação – Pessoa Jurídica</t>
+  </si>
+  <si>
+    <t>Contribuições</t>
+  </si>
+  <si>
+    <t>Auxílios</t>
+  </si>
+  <si>
+    <t>Subvenções Sociais</t>
+  </si>
+  <si>
+    <t>Subvenções Econômicas</t>
+  </si>
+  <si>
+    <t>Auxílio-Alimentação</t>
+  </si>
+  <si>
+    <t>Obrigações Tributárias e Contributivas</t>
+  </si>
+  <si>
+    <t>Outros Auxílios Financeiros a Pessoas Físicas</t>
+  </si>
+  <si>
+    <t>Auxílio-Transporte</t>
+  </si>
+  <si>
+    <t>Obras e Instalações</t>
+  </si>
+  <si>
+    <t>OBRAS E INSTALAÇÕES</t>
+  </si>
+  <si>
+    <t>Equipamentos e Material Permanente</t>
+  </si>
+  <si>
+    <t>Aposentadorias do RGPS - Área Rural</t>
+  </si>
+  <si>
+    <t>Aposentadorias do RGPS - Área Urbana</t>
+  </si>
+  <si>
+    <t>Pensões do RGPS - Área Rural</t>
+  </si>
+  <si>
+    <t>Pensões do RGPS - Área Urbana</t>
+  </si>
+  <si>
+    <t>Outros Benefícios do RGPS - Área Rural</t>
+  </si>
+  <si>
+    <t>Outros Benefícios do RGPS - Área Urbana</t>
+  </si>
+  <si>
+    <t>Pensões Especiais</t>
+  </si>
+  <si>
+    <t>Aquisição de Imóveis</t>
+  </si>
+  <si>
+    <t>Aquisição de Produtos para Revenda</t>
+  </si>
+  <si>
+    <t>Aquisição de Títulos de Crédito</t>
+  </si>
+  <si>
+    <t>Aquisição de Títulos Representativos de Capital já Integralizado</t>
+  </si>
+  <si>
+    <t>Constituição ou Aumento de Capital de Empresas</t>
+  </si>
+  <si>
+    <t>Concessão de Empréstimos e Financiamentos</t>
+  </si>
+  <si>
+    <t>Depósitos Compulsórios</t>
+  </si>
+  <si>
+    <t>Rateio pela Participação em Consórcio Público</t>
+  </si>
+  <si>
+    <t>Principal da Dívida Contratual Resgatado</t>
+  </si>
+  <si>
+    <t>Principal da Dívida Mobiliária Resgatado</t>
+  </si>
+  <si>
+    <t>Correção Monetária ou Cambial da Dívida Contratual Resgatada</t>
+  </si>
+  <si>
+    <t>Correção Monetária ou Cambial da Dívida Mobiliária Resgatada</t>
+  </si>
+  <si>
+    <t>Correção Monetária da Dívida de Operações de Crédito por Antecipação de Receita</t>
+  </si>
+  <si>
+    <t>Principal Corrigido da Dívida Mobiliária Refinanciado</t>
+  </si>
+  <si>
+    <t>Principal Corrigido da Dívida Contratual Refinanciado</t>
+  </si>
+  <si>
+    <t>Distribuição Constitucional ou Legal de Receitas</t>
+  </si>
+  <si>
+    <t>Aporte de Recursos pelo Parceiro Público em Favor do Parceiro Privado Decorrente de Contrato de Parceria Público -Privada</t>
+  </si>
+  <si>
+    <t>Despesas Decorrentes de Contrato de Parceria Público-Privada - PPP, exceto Subvenções Econômicas, Aporte e Fundo Garantidor</t>
+  </si>
+  <si>
+    <t>Despesas Decorrentes da Participação em Fundos, Organismos, ou Entidades Assemelhadas, Nacionais e Internacionais</t>
+  </si>
+  <si>
+    <t>Contrato de Gestão</t>
+  </si>
+  <si>
+    <t>Sentenças Judiciais</t>
+  </si>
+  <si>
+    <t>Despesas de Exercícios Anteriores</t>
+  </si>
+  <si>
+    <t>Indenizações e Restituições</t>
+  </si>
+  <si>
+    <t>Indenizações e Restituições Trabalhistas</t>
+  </si>
+  <si>
+    <t>Indenização pela Execução de Trabalhos de Campo</t>
+  </si>
+  <si>
+    <t>Ressarcimento de Despesas de Pessoal Requisitado</t>
+  </si>
+  <si>
+    <t>Aporte para Cobertura do Déficit Atuarial do RPPS</t>
+  </si>
+  <si>
+    <t>Compensações ao RGPS</t>
+  </si>
+  <si>
+    <t>A Classificar</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
 </sst>
 </file>
@@ -921,9 +1354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,23 +1672,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CAC658-906A-4D46-9491-0EE9C25561F1}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:A164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>248</v>
       </c>
@@ -1274,10 +1709,13 @@
         <v>246</v>
       </c>
       <c r="G1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1297,10 +1735,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1320,10 +1761,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1343,10 +1787,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1366,10 +1813,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1389,10 +1839,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1412,10 +1865,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1435,10 +1891,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1458,10 +1917,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1481,10 +1943,13 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1504,10 +1969,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1527,10 +1995,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1550,10 +2021,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1573,10 +2047,13 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1596,10 +2073,13 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1619,10 +2099,13 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1642,10 +2125,13 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1665,10 +2151,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1688,10 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1711,10 +2203,13 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1734,10 +2229,13 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1757,10 +2255,13 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1780,10 +2281,13 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1803,10 +2307,13 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1826,10 +2333,13 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1849,10 +2359,13 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1872,10 +2385,13 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1895,10 +2411,13 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1918,10 +2437,13 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1941,10 +2463,13 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1964,10 +2489,13 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1987,10 +2515,13 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2010,10 +2541,13 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2033,10 +2567,13 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2056,10 +2593,13 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2079,10 +2619,13 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2102,10 +2645,13 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2125,10 +2671,13 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2148,10 +2697,13 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2171,10 +2723,13 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2194,10 +2749,13 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>12</v>
       </c>
@@ -2217,10 +2775,13 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>13</v>
       </c>
@@ -2240,10 +2801,13 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2263,10 +2827,13 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>15</v>
       </c>
@@ -2286,10 +2853,13 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2309,10 +2879,13 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>17</v>
       </c>
@@ -2332,10 +2905,13 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>18</v>
       </c>
@@ -2355,10 +2931,13 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2378,10 +2957,13 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20</v>
       </c>
@@ -2401,10 +2983,13 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2424,10 +3009,13 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2447,10 +3035,13 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2470,10 +3061,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2493,10 +3087,13 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2516,10 +3113,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>26</v>
       </c>
@@ -2539,10 +3139,13 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2562,10 +3165,13 @@
         <v>1</v>
       </c>
       <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2585,10 +3191,13 @@
         <v>1</v>
       </c>
       <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2608,10 +3217,13 @@
         <v>1</v>
       </c>
       <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2631,10 +3243,13 @@
         <v>1</v>
       </c>
       <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2654,10 +3269,13 @@
         <v>1</v>
       </c>
       <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -2677,10 +3295,13 @@
         <v>1</v>
       </c>
       <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2700,10 +3321,13 @@
         <v>1</v>
       </c>
       <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -2723,10 +3347,13 @@
         <v>1</v>
       </c>
       <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9</v>
       </c>
@@ -2746,10 +3373,13 @@
         <v>1</v>
       </c>
       <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
@@ -2769,10 +3399,13 @@
         <v>1</v>
       </c>
       <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>11</v>
       </c>
@@ -2792,10 +3425,13 @@
         <v>1</v>
       </c>
       <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>12</v>
       </c>
@@ -2815,10 +3451,13 @@
         <v>1</v>
       </c>
       <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2838,10 +3477,13 @@
         <v>1</v>
       </c>
       <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>14</v>
       </c>
@@ -2861,10 +3503,13 @@
         <v>1</v>
       </c>
       <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>15</v>
       </c>
@@ -2884,10 +3529,13 @@
         <v>1</v>
       </c>
       <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>16</v>
       </c>
@@ -2907,10 +3555,13 @@
         <v>1</v>
       </c>
       <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>17</v>
       </c>
@@ -2930,10 +3581,13 @@
         <v>1</v>
       </c>
       <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>18</v>
       </c>
@@ -2953,10 +3607,13 @@
         <v>1</v>
       </c>
       <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>19</v>
       </c>
@@ -2976,10 +3633,13 @@
         <v>1</v>
       </c>
       <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>20</v>
       </c>
@@ -2999,10 +3659,13 @@
         <v>1</v>
       </c>
       <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>21</v>
       </c>
@@ -3022,10 +3685,13 @@
         <v>1</v>
       </c>
       <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>22</v>
       </c>
@@ -3045,10 +3711,13 @@
         <v>3</v>
       </c>
       <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>23</v>
       </c>
@@ -3068,10 +3737,13 @@
         <v>2</v>
       </c>
       <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>24</v>
       </c>
@@ -3091,10 +3763,13 @@
         <v>2</v>
       </c>
       <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>25</v>
       </c>
@@ -3114,10 +3789,13 @@
         <v>2</v>
       </c>
       <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>26</v>
       </c>
@@ -3137,10 +3815,13 @@
         <v>2</v>
       </c>
       <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3160,10 +3841,13 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3183,10 +3867,13 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3206,10 +3893,13 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -3229,10 +3919,13 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5</v>
       </c>
@@ -3252,10 +3945,13 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -3275,10 +3971,13 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7</v>
       </c>
@@ -3298,10 +3997,13 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -3321,10 +4023,13 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9</v>
       </c>
@@ -3344,10 +4049,13 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -3367,10 +4075,13 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>11</v>
       </c>
@@ -3390,10 +4101,13 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12</v>
       </c>
@@ -3413,10 +4127,13 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>13</v>
       </c>
@@ -3436,10 +4153,13 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3459,10 +4179,13 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>15</v>
       </c>
@@ -3482,10 +4205,13 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>16</v>
       </c>
@@ -3505,10 +4231,13 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>17</v>
       </c>
@@ -3528,10 +4257,13 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>18</v>
       </c>
@@ -3551,10 +4283,13 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>19</v>
       </c>
@@ -3574,10 +4309,13 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>20</v>
       </c>
@@ -3597,10 +4335,13 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>21</v>
       </c>
@@ -3620,10 +4361,13 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>22</v>
       </c>
@@ -3643,10 +4387,13 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>23</v>
       </c>
@@ -3666,10 +4413,13 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>24</v>
       </c>
@@ -3689,10 +4439,13 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>25</v>
       </c>
@@ -3712,10 +4465,13 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>26</v>
       </c>
@@ -3735,10 +4491,13 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>27</v>
       </c>
@@ -3758,10 +4517,13 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>28</v>
       </c>
@@ -3781,10 +4543,13 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>29</v>
       </c>
@@ -3804,10 +4569,13 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>30</v>
       </c>
@@ -3827,10 +4595,13 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>31</v>
       </c>
@@ -3850,10 +4621,13 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>32</v>
       </c>
@@ -3873,10 +4647,13 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>33</v>
       </c>
@@ -3896,10 +4673,13 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>34</v>
       </c>
@@ -3919,10 +4699,13 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>35</v>
       </c>
@@ -3942,10 +4725,13 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>36</v>
       </c>
@@ -3965,10 +4751,13 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>37</v>
       </c>
@@ -3988,10 +4777,13 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>38</v>
       </c>
@@ -4011,10 +4803,13 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>39</v>
       </c>
@@ -4034,10 +4829,13 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>40</v>
       </c>
@@ -4057,10 +4855,13 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>41</v>
       </c>
@@ -4080,10 +4881,13 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>42</v>
       </c>
@@ -4103,10 +4907,13 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>43</v>
       </c>
@@ -4126,10 +4933,13 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>44</v>
       </c>
@@ -4149,10 +4959,13 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>45</v>
       </c>
@@ -4172,10 +4985,13 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4195,10 +5011,13 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -4218,10 +5037,13 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4241,10 +5063,13 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4</v>
       </c>
@@ -4264,10 +5089,13 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4287,10 +5115,13 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -4310,10 +5141,13 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -4333,10 +5167,13 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8</v>
       </c>
@@ -4356,10 +5193,13 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>9</v>
       </c>
@@ -4379,10 +5219,13 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -4402,10 +5245,13 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -4425,10 +5271,13 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>12</v>
       </c>
@@ -4448,10 +5297,13 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>13</v>
       </c>
@@ -4471,10 +5323,13 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4494,10 +5349,13 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>15</v>
       </c>
@@ -4517,10 +5375,13 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4540,10 +5401,13 @@
         <v>3</v>
       </c>
       <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -4563,10 +5427,13 @@
         <v>3</v>
       </c>
       <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4586,10 +5453,13 @@
         <v>3</v>
       </c>
       <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4</v>
       </c>
@@ -4609,10 +5479,13 @@
         <v>3</v>
       </c>
       <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>5</v>
       </c>
@@ -4632,10 +5505,13 @@
         <v>3</v>
       </c>
       <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>6</v>
       </c>
@@ -4655,10 +5531,13 @@
         <v>3</v>
       </c>
       <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -4678,10 +5557,13 @@
         <v>3</v>
       </c>
       <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>8</v>
       </c>
@@ -4701,10 +5583,13 @@
         <v>3</v>
       </c>
       <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9</v>
       </c>
@@ -4724,10 +5609,13 @@
         <v>3</v>
       </c>
       <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10</v>
       </c>
@@ -4747,10 +5635,13 @@
         <v>3</v>
       </c>
       <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>11</v>
       </c>
@@ -4770,10 +5661,13 @@
         <v>3</v>
       </c>
       <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>12</v>
       </c>
@@ -4793,10 +5687,13 @@
         <v>3</v>
       </c>
       <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>13</v>
       </c>
@@ -4816,10 +5713,13 @@
         <v>3</v>
       </c>
       <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>14</v>
       </c>
@@ -4839,10 +5739,13 @@
         <v>3</v>
       </c>
       <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15</v>
       </c>
@@ -4862,10 +5765,13 @@
         <v>3</v>
       </c>
       <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>16</v>
       </c>
@@ -4885,10 +5791,13 @@
         <v>3</v>
       </c>
       <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>17</v>
       </c>
@@ -4908,10 +5817,13 @@
         <v>3</v>
       </c>
       <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>18</v>
       </c>
@@ -4931,10 +5843,13 @@
         <v>3</v>
       </c>
       <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>19</v>
       </c>
@@ -4954,10 +5869,13 @@
         <v>3</v>
       </c>
       <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>20</v>
       </c>
@@ -4977,10 +5895,13 @@
         <v>3</v>
       </c>
       <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>21</v>
       </c>
@@ -5000,10 +5921,13 @@
         <v>3</v>
       </c>
       <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>22</v>
       </c>
@@ -5023,7 +5947,660 @@
         <v>3</v>
       </c>
       <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
         <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C165" t="s">
+        <v>285</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E165" t="s">
+        <v>61</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C166" t="s">
+        <v>286</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E166" t="s">
+        <v>61</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" t="s">
+        <v>287</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E167" t="s">
+        <v>61</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C168" t="s">
+        <v>288</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E168" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C169" t="s">
+        <v>289</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E169" t="s">
+        <v>61</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C170" t="s">
+        <v>290</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E170" t="s">
+        <v>61</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C171" t="s">
+        <v>291</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E171" t="s">
+        <v>61</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>8</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C172" t="s">
+        <v>292</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E172" t="s">
+        <v>61</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>9</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C173" t="s">
+        <v>293</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" t="s">
+        <v>61</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>10</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C174" t="s">
+        <v>294</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E174" t="s">
+        <v>61</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>11</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C175" t="s">
+        <v>295</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E175" t="s">
+        <v>61</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>12</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C176" t="s">
+        <v>296</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" t="s">
+        <v>61</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C177" t="s">
+        <v>297</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E177" t="s">
+        <v>61</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C178" t="s">
+        <v>298</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E178" t="s">
+        <v>61</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>15</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C179" t="s">
+        <v>299</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E179" t="s">
+        <v>61</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>16</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180" t="s">
+        <v>300</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E180" t="s">
+        <v>62</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>17</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C181" t="s">
+        <v>301</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E181" t="s">
+        <v>62</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C182" t="s">
+        <v>314</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E182" t="s">
+        <v>61</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C183" t="s">
+        <v>315</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E183" t="s">
+        <v>61</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C184" t="s">
+        <v>299</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E184" t="s">
+        <v>61</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C185" t="s">
+        <v>316</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E185" t="s">
+        <v>61</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C186" t="s">
+        <v>317</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E186" t="s">
+        <v>61</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C187" t="s">
+        <v>318</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E187" t="s">
+        <v>61</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C188" t="s">
+        <v>319</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E188" t="s">
+        <v>61</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C189" t="s">
+        <v>300</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" t="s">
+        <v>62</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5040,14 +6617,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
@@ -5058,7 +6635,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>152142</v>
       </c>
@@ -5069,7 +6646,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>152145</v>
       </c>
@@ -5080,7 +6657,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>152146</v>
       </c>
@@ -5091,7 +6668,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>152139</v>
       </c>
@@ -5102,7 +6679,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>158501</v>
       </c>
@@ -5113,7 +6690,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>152143</v>
       </c>
@@ -5124,7 +6701,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>152147</v>
       </c>
@@ -5135,7 +6712,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>152141</v>
       </c>
@@ -5146,7 +6723,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>152144</v>
       </c>
@@ -5157,7 +6734,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>152140</v>
       </c>
@@ -5168,7 +6745,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>158143</v>
       </c>
@@ -5189,13 +6766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6545BBD-29EC-44EB-AE35-45E8862F6718}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>279</v>
       </c>
@@ -5203,7 +6780,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5211,7 +6788,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5219,7 +6796,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5227,7 +6804,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5235,7 +6812,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5243,7 +6820,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5251,7 +6828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -5263,4 +6840,1272 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927473AE-EF58-4F51-B4DC-FF0974C325DF}">
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" t="s">
+        <v>328</v>
+      </c>
+      <c r="D37" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C40" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" t="s">
+        <v>328</v>
+      </c>
+      <c r="D43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D50" t="s">
+        <v>366</v>
+      </c>
+      <c r="E50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>395</v>
+      </c>
+      <c r="C56" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>396</v>
+      </c>
+      <c r="C57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>397</v>
+      </c>
+      <c r="C58" t="s">
+        <v>328</v>
+      </c>
+      <c r="D58" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>399</v>
+      </c>
+      <c r="C60" t="s">
+        <v>328</v>
+      </c>
+      <c r="D60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>400</v>
+      </c>
+      <c r="C61" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>402</v>
+      </c>
+      <c r="C63" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" t="s">
+        <v>328</v>
+      </c>
+      <c r="D64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>404</v>
+      </c>
+      <c r="C65" t="s">
+        <v>328</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>405</v>
+      </c>
+      <c r="C66" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>406</v>
+      </c>
+      <c r="C67" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C68" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>408</v>
+      </c>
+      <c r="C69" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>409</v>
+      </c>
+      <c r="C70" t="s">
+        <v>328</v>
+      </c>
+      <c r="D70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>410</v>
+      </c>
+      <c r="C71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>412</v>
+      </c>
+      <c r="C73" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" t="s">
+        <v>328</v>
+      </c>
+      <c r="D75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>415</v>
+      </c>
+      <c r="C76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>416</v>
+      </c>
+      <c r="C77" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" t="s">
+        <v>328</v>
+      </c>
+      <c r="D78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>418</v>
+      </c>
+      <c r="C79" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>421</v>
+      </c>
+      <c r="C82" t="s">
+        <v>328</v>
+      </c>
+      <c r="D82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>424</v>
+      </c>
+      <c r="C85" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>425</v>
+      </c>
+      <c r="C86" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data-raw/tb_ppreport.xlsx
+++ b/data-raw/tb_ppreport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pompy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53A6257-4648-4981-AB06-F6B8969DA937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41B1652-A412-4061-9175-4A7AF3E0A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="462">
   <si>
     <t>Emissão - Ano</t>
   </si>
@@ -1315,6 +1315,111 @@
   </si>
   <si>
     <t>skip</t>
+  </si>
+  <si>
+    <t>tg_repct_orc</t>
+  </si>
+  <si>
+    <t>Esfera Orçamentária Código</t>
+  </si>
+  <si>
+    <t>Esfera Orçamentária Nome</t>
+  </si>
+  <si>
+    <t>Programa Governo Código</t>
+  </si>
+  <si>
+    <t>Programa Governo Nome</t>
+  </si>
+  <si>
+    <t>Função Governo Código</t>
+  </si>
+  <si>
+    <t>Função Governo Nome</t>
+  </si>
+  <si>
+    <t>Plano Orçamentário Código UO</t>
+  </si>
+  <si>
+    <t>Plano Orçamentário Código Função</t>
+  </si>
+  <si>
+    <t>Plano Orçamentário Código Subfunção</t>
+  </si>
+  <si>
+    <t>Plano Orçamentário Código Programa</t>
+  </si>
+  <si>
+    <t>Plano Orçamentário Código Ação</t>
+  </si>
+  <si>
+    <t>Fonte SOF</t>
+  </si>
+  <si>
+    <t>Categoria Econômica Despesa Código</t>
+  </si>
+  <si>
+    <t>Categoria Econômica Despesa Nome</t>
+  </si>
+  <si>
+    <t>Modalidade Aplicação Código</t>
+  </si>
+  <si>
+    <t>Modalidade Aplicação Nome</t>
+  </si>
+  <si>
+    <t>DOTACAO SUPLEMENTAR</t>
+  </si>
+  <si>
+    <t>DOTACAO ESPECIAL</t>
+  </si>
+  <si>
+    <t>PROGRAMA</t>
+  </si>
+  <si>
+    <t>CO_PROGRAMA</t>
+  </si>
+  <si>
+    <t>CO_FUNCAO</t>
+  </si>
+  <si>
+    <t>FUNCAO</t>
+  </si>
+  <si>
+    <t>CO_PO_UO</t>
+  </si>
+  <si>
+    <t>CO_PO_FUNCAO</t>
+  </si>
+  <si>
+    <t>CO_PO_SUBFUNCAO</t>
+  </si>
+  <si>
+    <t>CO_PO_PROGRAMA</t>
+  </si>
+  <si>
+    <t>CO_PO_ACAO</t>
+  </si>
+  <si>
+    <t>CO_CATEGORIA</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>CO_MODALIDADE</t>
+  </si>
+  <si>
+    <t>MODALIDADE</t>
+  </si>
+  <si>
+    <t>PLOA</t>
+  </si>
+  <si>
+    <t>DOTACAO_SUPLEMENTAR</t>
+  </si>
+  <si>
+    <t>DOTACAO_ESPECIAL</t>
   </si>
 </sst>
 </file>
@@ -1672,24 +1777,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CAC658-906A-4D46-9491-0EE9C25561F1}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H189"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>248</v>
       </c>
@@ -1715,7 +1820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1741,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1767,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1793,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1819,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1845,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1871,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1897,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1923,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1949,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1975,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2001,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2027,7 +2132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2053,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2079,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2105,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2131,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2157,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2183,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2209,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2235,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2261,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2287,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2313,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2339,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2365,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2391,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2417,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2443,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2469,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2495,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2521,7 +2626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2547,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2573,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2599,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2625,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2651,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2677,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2703,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2729,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2755,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -2781,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -2807,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2833,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -2859,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2885,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -2911,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -2937,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2963,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -2989,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -3015,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -3041,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -3067,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -3093,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25</v>
       </c>
@@ -3119,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>26</v>
       </c>
@@ -3145,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3171,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3197,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3223,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -3249,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -3275,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -3301,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -3327,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -3353,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -3379,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
@@ -3405,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -3431,7 +3536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -3457,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13</v>
       </c>
@@ -3483,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -3509,7 +3614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15</v>
       </c>
@@ -3535,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -3561,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>17</v>
       </c>
@@ -3587,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -3613,7 +3718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
@@ -3639,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20</v>
       </c>
@@ -3665,7 +3770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21</v>
       </c>
@@ -3691,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22</v>
       </c>
@@ -3717,7 +3822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>23</v>
       </c>
@@ -3743,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>24</v>
       </c>
@@ -3769,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>25</v>
       </c>
@@ -3795,7 +3900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>26</v>
       </c>
@@ -3821,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3847,7 +3952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3873,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3899,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -3925,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -3951,7 +4056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -3977,7 +4082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -4003,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
@@ -4029,7 +4134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
@@ -4055,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10</v>
       </c>
@@ -4081,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11</v>
       </c>
@@ -4107,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12</v>
       </c>
@@ -4133,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>13</v>
       </c>
@@ -4159,7 +4264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -4185,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>15</v>
       </c>
@@ -4211,7 +4316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
@@ -4237,7 +4342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>17</v>
       </c>
@@ -4263,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18</v>
       </c>
@@ -4289,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>19</v>
       </c>
@@ -4315,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -4341,7 +4446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>21</v>
       </c>
@@ -4367,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>22</v>
       </c>
@@ -4393,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23</v>
       </c>
@@ -4419,7 +4524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24</v>
       </c>
@@ -4445,7 +4550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>25</v>
       </c>
@@ -4471,7 +4576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>26</v>
       </c>
@@ -4497,7 +4602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>27</v>
       </c>
@@ -4523,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>28</v>
       </c>
@@ -4549,7 +4654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>29</v>
       </c>
@@ -4575,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>30</v>
       </c>
@@ -4601,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>31</v>
       </c>
@@ -4627,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>32</v>
       </c>
@@ -4653,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>33</v>
       </c>
@@ -4679,7 +4784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>34</v>
       </c>
@@ -4705,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>35</v>
       </c>
@@ -4731,7 +4836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>36</v>
       </c>
@@ -4757,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>37</v>
       </c>
@@ -4783,7 +4888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>38</v>
       </c>
@@ -4809,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>39</v>
       </c>
@@ -4835,7 +4940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>40</v>
       </c>
@@ -4861,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>41</v>
       </c>
@@ -4887,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>42</v>
       </c>
@@ -4913,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>43</v>
       </c>
@@ -4939,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>44</v>
       </c>
@@ -4965,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>45</v>
       </c>
@@ -4991,7 +5096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -5017,7 +5122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -5043,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -5069,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -5095,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -5121,7 +5226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -5147,7 +5252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -5173,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -5199,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -5225,7 +5330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10</v>
       </c>
@@ -5251,7 +5356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11</v>
       </c>
@@ -5277,7 +5382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12</v>
       </c>
@@ -5303,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>13</v>
       </c>
@@ -5329,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5355,7 +5460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15</v>
       </c>
@@ -5381,7 +5486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5407,7 +5512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -5433,7 +5538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -5459,7 +5564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -5485,7 +5590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -5511,7 +5616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -5537,7 +5642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -5563,7 +5668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
@@ -5589,7 +5694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9</v>
       </c>
@@ -5615,7 +5720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10</v>
       </c>
@@ -5641,7 +5746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>11</v>
       </c>
@@ -5667,7 +5772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>12</v>
       </c>
@@ -5693,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13</v>
       </c>
@@ -5719,7 +5824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -5745,7 +5850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5771,7 +5876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5797,7 +5902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>17</v>
       </c>
@@ -5823,7 +5928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18</v>
       </c>
@@ -5849,7 +5954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>19</v>
       </c>
@@ -5875,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>20</v>
       </c>
@@ -5901,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>21</v>
       </c>
@@ -5927,7 +6032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>22</v>
       </c>
@@ -5953,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5979,7 +6084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2</v>
       </c>
@@ -6005,7 +6110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -6031,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -6057,7 +6162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -6083,7 +6188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6</v>
       </c>
@@ -6109,7 +6214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7</v>
       </c>
@@ -6135,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -6161,7 +6266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>9</v>
       </c>
@@ -6187,7 +6292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>10</v>
       </c>
@@ -6213,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11</v>
       </c>
@@ -6239,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>12</v>
       </c>
@@ -6265,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>13</v>
       </c>
@@ -6291,7 +6396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14</v>
       </c>
@@ -6317,7 +6422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>15</v>
       </c>
@@ -6343,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>16</v>
       </c>
@@ -6369,7 +6474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>17</v>
       </c>
@@ -6395,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6421,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2</v>
       </c>
@@ -6447,7 +6552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -6473,7 +6578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -6499,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -6525,7 +6630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -6551,7 +6656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -6577,7 +6682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -6601,6 +6706,994 @@
       </c>
       <c r="H189">
         <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C190" t="s">
+        <v>85</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E190" t="s">
+        <v>61</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C191" t="s">
+        <v>126</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E191" t="s">
+        <v>61</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C192" t="s">
+        <v>127</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" t="s">
+        <v>61</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+      <c r="H192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C193" t="s">
+        <v>428</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E193" t="s">
+        <v>61</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C194" t="s">
+        <v>429</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E194" t="s">
+        <v>61</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>6</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C195" t="s">
+        <v>430</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E195" t="s">
+        <v>61</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C196" t="s">
+        <v>431</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E196" t="s">
+        <v>61</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C197" t="s">
+        <v>432</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E197" t="s">
+        <v>61</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>9</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C198" t="s">
+        <v>433</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E198" t="s">
+        <v>61</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>10</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C199" t="s">
+        <v>91</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E199" t="s">
+        <v>61</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+      <c r="H199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>11</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C200" t="s">
+        <v>92</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>12</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C201" t="s">
+        <v>138</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E201" t="s">
+        <v>61</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C202" t="s">
+        <v>139</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E202" t="s">
+        <v>61</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="H202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C203" t="s">
+        <v>434</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E203" t="s">
+        <v>61</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+      <c r="H203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>15</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C204" t="s">
+        <v>435</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E204" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>16</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C205" t="s">
+        <v>436</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E205" t="s">
+        <v>61</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>17</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" t="s">
+        <v>437</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E206" t="s">
+        <v>61</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>18</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C207" t="s">
+        <v>438</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E207" t="s">
+        <v>61</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>19</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C208" t="s">
+        <v>140</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E208" t="s">
+        <v>61</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C209" t="s">
+        <v>141</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E209" t="s">
+        <v>61</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>21</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C210" t="s">
+        <v>93</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E210" t="s">
+        <v>61</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>22</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" t="s">
+        <v>94</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E211" t="s">
+        <v>61</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>23</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" t="s">
+        <v>439</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E212" t="s">
+        <v>61</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>24</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C213" t="s">
+        <v>440</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E213" t="s">
+        <v>61</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+      <c r="H213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>25</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C214" t="s">
+        <v>441</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E214" t="s">
+        <v>61</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>26</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C215" t="s">
+        <v>144</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E215" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>27</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C216" t="s">
+        <v>145</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E216" t="s">
+        <v>61</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+      <c r="H216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>28</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C217" t="s">
+        <v>442</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E217" t="s">
+        <v>61</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>29</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C218" t="s">
+        <v>443</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E218" t="s">
+        <v>61</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>30</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C219" t="s">
+        <v>146</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E219" t="s">
+        <v>61</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>31</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C220" t="s">
+        <v>147</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E220" t="s">
+        <v>61</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>32</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C221" t="s">
+        <v>149</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E221" t="s">
+        <v>62</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>33</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C222" t="s">
+        <v>150</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E222" t="s">
+        <v>62</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>34</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C223" t="s">
+        <v>444</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E223" t="s">
+        <v>62</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>35</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C224" t="s">
+        <v>445</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E224" t="s">
+        <v>62</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+      <c r="H224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>36</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C225" t="s">
+        <v>151</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E225" t="s">
+        <v>62</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>37</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C226" t="s">
+        <v>155</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E226" t="s">
+        <v>62</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>38</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C227" t="s">
+        <v>157</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E227" t="s">
+        <v>62</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+      <c r="H227">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6617,14 +7710,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
@@ -6635,7 +7728,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>152142</v>
       </c>
@@ -6646,7 +7739,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>152145</v>
       </c>
@@ -6657,7 +7750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>152146</v>
       </c>
@@ -6668,7 +7761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>152139</v>
       </c>
@@ -6679,7 +7772,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>158501</v>
       </c>
@@ -6690,7 +7783,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>152143</v>
       </c>
@@ -6701,7 +7794,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>152147</v>
       </c>
@@ -6712,7 +7805,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>152141</v>
       </c>
@@ -6723,7 +7816,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>152144</v>
       </c>
@@ -6734,7 +7827,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>152140</v>
       </c>
@@ -6745,7 +7838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>158143</v>
       </c>
@@ -6770,9 +7863,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>279</v>
       </c>
@@ -6780,7 +7873,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6788,7 +7881,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6796,7 +7889,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6804,7 +7897,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6812,7 +7905,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6820,7 +7913,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6828,7 +7921,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -6850,16 +7943,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>172</v>
       </c>
@@ -6876,7 +7969,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>326</v>
       </c>
@@ -6890,7 +7983,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>330</v>
       </c>
@@ -6904,7 +7997,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>332</v>
       </c>
@@ -6918,7 +8011,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>334</v>
       </c>
@@ -6932,7 +8025,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>337</v>
       </c>
@@ -6946,7 +8039,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>339</v>
       </c>
@@ -6960,7 +8053,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>341</v>
       </c>
@@ -6974,7 +8067,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>343</v>
       </c>
@@ -6988,7 +8081,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -7002,7 +8095,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7016,7 +8109,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -7030,7 +8123,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -7044,7 +8137,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -7058,7 +8151,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -7072,7 +8165,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -7086,7 +8179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -7100,7 +8193,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -7114,7 +8207,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -7128,7 +8221,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -7142,7 +8235,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -7156,7 +8249,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -7170,7 +8263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -7184,7 +8277,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -7198,7 +8291,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -7212,7 +8305,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -7226,7 +8319,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -7240,7 +8333,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -7254,7 +8347,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -7268,7 +8361,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -7285,7 +8378,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -7302,7 +8395,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -7319,7 +8412,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -7336,7 +8429,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -7353,7 +8446,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -7370,7 +8463,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -7387,7 +8480,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -7404,7 +8497,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -7418,7 +8511,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -7435,7 +8528,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -7452,7 +8545,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -7466,7 +8559,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -7480,7 +8573,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -7494,7 +8587,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45</v>
       </c>
@@ -7508,7 +8601,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>46</v>
       </c>
@@ -7522,7 +8615,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>47</v>
       </c>
@@ -7536,7 +8629,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>48</v>
       </c>
@@ -7550,7 +8643,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>49</v>
       </c>
@@ -7564,7 +8657,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>51</v>
       </c>
@@ -7581,7 +8674,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>52</v>
       </c>
@@ -7598,7 +8691,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>53</v>
       </c>
@@ -7612,7 +8705,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>54</v>
       </c>
@@ -7626,7 +8719,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>55</v>
       </c>
@@ -7640,7 +8733,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>56</v>
       </c>
@@ -7654,7 +8747,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>57</v>
       </c>
@@ -7668,7 +8761,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>58</v>
       </c>
@@ -7682,7 +8775,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>59</v>
       </c>
@@ -7696,7 +8789,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>61</v>
       </c>
@@ -7713,7 +8806,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>62</v>
       </c>
@@ -7727,7 +8820,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>63</v>
       </c>
@@ -7741,7 +8834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>64</v>
       </c>
@@ -7755,7 +8848,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>65</v>
       </c>
@@ -7769,7 +8862,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>66</v>
       </c>
@@ -7783,7 +8876,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>67</v>
       </c>
@@ -7797,7 +8890,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>70</v>
       </c>
@@ -7811,7 +8904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>71</v>
       </c>
@@ -7825,7 +8918,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>72</v>
       </c>
@@ -7839,7 +8932,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>73</v>
       </c>
@@ -7853,7 +8946,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>74</v>
       </c>
@@ -7867,7 +8960,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>75</v>
       </c>
@@ -7881,7 +8974,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>76</v>
       </c>
@@ -7895,7 +8988,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>77</v>
       </c>
@@ -7909,7 +9002,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>81</v>
       </c>
@@ -7923,7 +9016,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>82</v>
       </c>
@@ -7937,7 +9030,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>83</v>
       </c>
@@ -7951,7 +9044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>84</v>
       </c>
@@ -7965,7 +9058,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>85</v>
       </c>
@@ -7979,7 +9072,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>91</v>
       </c>
@@ -7993,7 +9086,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>92</v>
       </c>
@@ -8007,7 +9100,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>93</v>
       </c>
@@ -8021,7 +9114,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>94</v>
       </c>
@@ -8035,7 +9128,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>95</v>
       </c>
@@ -8049,7 +9142,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>96</v>
       </c>
@@ -8063,7 +9156,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>97</v>
       </c>
@@ -8077,7 +9170,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>98</v>
       </c>
@@ -8091,7 +9184,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>99</v>
       </c>

--- a/data-raw/tb_ppreport.xlsx
+++ b/data-raw/tb_ppreport.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pompy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41B1652-A412-4061-9175-4A7AF3E0A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1255580F-612C-4C80-8653-17916D4D51F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_data" sheetId="2" r:id="rId1"/>
     <sheet name="tb_ug" sheetId="3" r:id="rId2"/>
     <sheet name="tb_gnd" sheetId="4" r:id="rId3"/>
     <sheet name="tb_elemento" sheetId="5" r:id="rId4"/>
+    <sheet name="tb_acao" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="511">
   <si>
     <t>Emissão - Ano</t>
   </si>
@@ -1420,6 +1421,153 @@
   </si>
   <si>
     <t>DOTACAO_ESPECIAL</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>09HB</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>00M1</t>
+  </si>
+  <si>
+    <t>00S6</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>20TP</t>
+  </si>
+  <si>
+    <t>212B</t>
+  </si>
+  <si>
+    <t>00OL</t>
+  </si>
+  <si>
+    <t>00PW</t>
+  </si>
+  <si>
+    <t>20RG</t>
+  </si>
+  <si>
+    <t>20RL</t>
+  </si>
+  <si>
+    <t>216H</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>2994</t>
+  </si>
+  <si>
+    <t>4572</t>
+  </si>
+  <si>
+    <t>6358</t>
+  </si>
+  <si>
+    <t>6380</t>
+  </si>
+  <si>
+    <t>8650</t>
+  </si>
+  <si>
+    <t>RE_ACAO</t>
+  </si>
+  <si>
+    <t>Contribuição RPPS</t>
+  </si>
+  <si>
+    <t>Sentenças Judiciais (Precatórios)</t>
+  </si>
+  <si>
+    <t>Complementação de Aposentadoria</t>
+  </si>
+  <si>
+    <t>Aposentadorias e Pensões</t>
+  </si>
+  <si>
+    <t>Assistência Médica e Odontológica</t>
+  </si>
+  <si>
+    <t>Assistência Pré-Escolar</t>
+  </si>
+  <si>
+    <t>Auxílio Transporte</t>
+  </si>
+  <si>
+    <t>Auxílio Alimentação</t>
+  </si>
+  <si>
+    <t>Ativos Civis</t>
+  </si>
+  <si>
+    <t>Benefícios Obrigatórios</t>
+  </si>
+  <si>
+    <t>Contribuição Anual CONIF</t>
+  </si>
+  <si>
+    <t>Reestauração e Modernização</t>
+  </si>
+  <si>
+    <t>Funcionamento</t>
+  </si>
+  <si>
+    <t>Ajuda de Custo</t>
+  </si>
+  <si>
+    <t>Funcionamento da Educação Profissional</t>
+  </si>
+  <si>
+    <t>Assistência aos Estudantes</t>
+  </si>
+  <si>
+    <t>Capacitação</t>
+  </si>
+  <si>
+    <t>Fomento ao Desenvolvimento da EPT</t>
+  </si>
+  <si>
+    <t>Reestruturação da RFEPT</t>
+  </si>
+  <si>
+    <t>PESSOAL</t>
+  </si>
+  <si>
+    <t>Auxílio Funeral e Natalidade</t>
+  </si>
+  <si>
+    <t>CONIF</t>
+  </si>
+  <si>
+    <t>ADMINISTRACAO</t>
+  </si>
+  <si>
+    <t>ASSISTENCIA</t>
+  </si>
+  <si>
+    <t>CAPACITACAO</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CAC658-906A-4D46-9491-0EE9C25561F1}">
   <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7939,7 +8087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927473AE-EF58-4F51-B4DC-FF0974C325DF}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -9201,4 +9349,276 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE0C557-93BB-4FAD-9150-0E056B38BC0D}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>